--- a/3-descriptive-statistics/3-descriptive-statistics.xlsx
+++ b/3-descriptive-statistics/3-descriptive-statistics.xlsx
@@ -1,22 +1,97 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28812"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeMount\Documents\GitHub\ready-to-go-python-in-excel-use-cases\3-descriptive-statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E5650653-FA4E-4B7C-B2E1-C5F39AE44B03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FA9E731-9920-40BC-AB44-826104C535FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mpg" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
+</file>
+
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
+<file path=xl/python.xml><?xml version="1.0" encoding="utf-8"?>
+<python xmlns="http://schemas.microsoft.com/office/spreadsheetml/2023/python">
+  <environmentDefinition id="{882DD1B0-6546-4DFA-8A08-902A380B44EA}">
+    <initialization>
+      <code xml:space="preserve">import numpy as np
+import pandas as pd
+import matplotlib.pyplot as plt
+import seaborn as sns
+import statsmodels as sm
+import excel
+import warnings
+warnings.simplefilter('ignore')
+excel.set_xl_scalar_conversion(excel.convert_to_scalar)
+excel.set_xl_array_conversion(excel.convert_to_dataframe)
+</code>
+    </initialization>
+  </environmentDefinition>
+  <pythonScripts>
+    <pythonScript>
+      <code>mpg_df = xl(%P2%, headers=True)</code>
+    </pythonScript>
+  </pythonScripts>
+</python>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -596,6 +671,246 @@
 </styleSheet>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdarray.xml><?xml version="1.0" encoding="utf-8"?>
+<arrayData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="1">
+  <a r="12" c="9">
+    <v t="s"/>
+    <v t="s">mpg</v>
+    <v t="s">cylinders</v>
+    <v t="s">displacement</v>
+    <v t="s">horsepower</v>
+    <v t="s">weight</v>
+    <v t="s">acceleration</v>
+    <v t="s">model_year</v>
+    <v t="s">origin</v>
+    <v>0</v>
+    <v>18</v>
+    <v>8</v>
+    <v>307</v>
+    <v>130</v>
+    <v>3504</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>1</v>
+    <v>15</v>
+    <v>8</v>
+    <v>350</v>
+    <v>165</v>
+    <v>3693</v>
+    <v>11.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>2</v>
+    <v>18</v>
+    <v>8</v>
+    <v>318</v>
+    <v>150</v>
+    <v>3436</v>
+    <v>11</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>3</v>
+    <v>16</v>
+    <v>8</v>
+    <v>304</v>
+    <v>150</v>
+    <v>3433</v>
+    <v>12</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v>4</v>
+    <v>17</v>
+    <v>8</v>
+    <v>302</v>
+    <v>140</v>
+    <v>3449</v>
+    <v>10.5</v>
+    <v>70</v>
+    <v t="s">usa</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v t="s">...</v>
+    <v>393</v>
+    <v>27</v>
+    <v>4</v>
+    <v>140</v>
+    <v>86</v>
+    <v>2790</v>
+    <v>15.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>394</v>
+    <v>44</v>
+    <v>4</v>
+    <v>97</v>
+    <v>52</v>
+    <v>2130</v>
+    <v>24.6</v>
+    <v>82</v>
+    <v t="s">europe</v>
+    <v>395</v>
+    <v>32</v>
+    <v>4</v>
+    <v>135</v>
+    <v>84</v>
+    <v>2295</v>
+    <v>11.6</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>396</v>
+    <v>28</v>
+    <v>4</v>
+    <v>120</v>
+    <v>79</v>
+    <v>2625</v>
+    <v>18.600000000000001</v>
+    <v>82</v>
+    <v t="s">usa</v>
+    <v>397</v>
+    <v>31</v>
+    <v>4</v>
+    <v>119</v>
+    <v>82</v>
+    <v>2720</v>
+    <v>19.399999999999999</v>
+    <v>82</v>
+    <v t="s">usa</v>
+  </a>
+</arrayData>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>0</v>
+  </rv>
+  <rv s="1">
+    <v>DataFrame</v>
+    <v>1</v>
+    <v>0</v>
+  </rv>
+  <rv s="2">
+    <v>&lt;class 'pandas.core.frame.DataFrame'&gt;</v>
+    <v>DataFrame</v>
+    <v xml:space="preserve">      mpg  cylinders  displacement  horsepower  weight  acceleration  \
+0    18.0          8         307.0       130.0    3504          12.0   
+1    15.0          8         350.0       165.0    3693          11.5   
+2    18.0          8         318.0  ...</v>
+    <v>1</v>
+    <v>2</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_array">
+    <k n="array" t="a"/>
+  </s>
+  <s t="_entity">
+    <k n="_DisplayString" t="s"/>
+    <k n="_ViewInfo" t="spb"/>
+    <k n="arrayPreview" t="r"/>
+  </s>
+  <s t="_python">
+    <k n="Python_type" t="s"/>
+    <k n="Python_typeName" t="s"/>
+    <k n="Python_str" t="s"/>
+    <k n="preview" t="r"/>
+    <k n="_Provider" t="spb"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbData count="3">
+    <spb s="0">
+      <v>398</v>
+      <v>8</v>
+      <v>DataFrame</v>
+      <v>arrayPreview</v>
+      <v>1</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>https://www.anaconda.com/excel</v>
+      <v>https://res.cdn.office.net/officepysvc/prod-preview/anacondalogo.png</v>
+      <v>Python provided by Anaconda</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="3">
+  <s>
+    <k n="drw" t="i"/>
+    <k n="dcol" t="i"/>
+    <k n="name" t="s"/>
+    <k n="array" t="s"/>
+    <k n="headers" t="b"/>
+  </s>
+  <s>
+    <k n="ArrayCardInfo" t="spb"/>
+  </s>
+  <s>
+    <k n="link" t="s"/>
+    <k n="logo" t="s"/>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}" name="mpg" displayName="mpg" ref="A1:H399" totalsRowShown="0">
   <autoFilter ref="A1:H399" xr:uid="{A828EDAD-32E5-4405-A598-C65848F6C6DE}"/>
@@ -930,13 +1245,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H399"/>
+  <dimension ref="A1:J399"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="21.3" x14ac:dyDescent="0.85"/>
   <cols>
     <col min="2" max="2" width="9.03515625" customWidth="1"/>
     <col min="3" max="3" width="12.73828125" customWidth="1"/>
@@ -945,7 +1260,7 @@
     <col min="7" max="7" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1286,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A2">
         <v>18</v>
       </c>
@@ -996,8 +1311,12 @@
       <c r="H2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+      <c r="J2" t="e" cm="1" vm="1">
+        <f t="array" ref="J2">_xlfn._xlws.PY(0,1,mpg[#All])</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A3">
         <v>15</v>
       </c>
@@ -1023,7 +1342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A4">
         <v>18</v>
       </c>
@@ -1049,7 +1368,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A5">
         <v>16</v>
       </c>
@@ -1075,7 +1394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A6">
         <v>17</v>
       </c>
@@ -1101,7 +1420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A7">
         <v>15</v>
       </c>
@@ -1127,7 +1446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A8">
         <v>14</v>
       </c>
@@ -1153,7 +1472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A9">
         <v>14</v>
       </c>
@@ -1179,7 +1498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A10">
         <v>14</v>
       </c>
@@ -1205,7 +1524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A11">
         <v>15</v>
       </c>
@@ -1231,7 +1550,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1257,7 +1576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A13">
         <v>14</v>
       </c>
@@ -1283,7 +1602,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A14">
         <v>15</v>
       </c>
@@ -1309,7 +1628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1335,7 +1654,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.85">
       <c r="A16">
         <v>24</v>
       </c>
@@ -1361,7 +1680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A17">
         <v>22</v>
       </c>
@@ -1387,7 +1706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A18">
         <v>18</v>
       </c>
@@ -1413,7 +1732,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A19">
         <v>21</v>
       </c>
@@ -1439,7 +1758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A20">
         <v>27</v>
       </c>
@@ -1465,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A21">
         <v>26</v>
       </c>
@@ -1491,7 +1810,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A22">
         <v>25</v>
       </c>
@@ -1517,7 +1836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A23">
         <v>24</v>
       </c>
@@ -1543,7 +1862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A24">
         <v>25</v>
       </c>
@@ -1569,7 +1888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A25">
         <v>26</v>
       </c>
@@ -1595,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A26">
         <v>21</v>
       </c>
@@ -1621,7 +1940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A27">
         <v>10</v>
       </c>
@@ -1647,7 +1966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1673,7 +1992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A29">
         <v>11</v>
       </c>
@@ -1699,7 +2018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A30">
         <v>9</v>
       </c>
@@ -1725,7 +2044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1751,7 +2070,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A32">
         <v>28</v>
       </c>
@@ -1777,7 +2096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A33">
         <v>25</v>
       </c>
@@ -1803,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A34">
         <v>25</v>
       </c>
@@ -1826,7 +2145,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A35">
         <v>19</v>
       </c>
@@ -1852,7 +2171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A36">
         <v>16</v>
       </c>
@@ -1878,7 +2197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A37">
         <v>17</v>
       </c>
@@ -1904,7 +2223,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1930,7 +2249,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A39">
         <v>18</v>
       </c>
@@ -1956,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A40">
         <v>14</v>
       </c>
@@ -1982,7 +2301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A41">
         <v>14</v>
       </c>
@@ -2008,7 +2327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A42">
         <v>14</v>
       </c>
@@ -2034,7 +2353,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A43">
         <v>14</v>
       </c>
@@ -2060,7 +2379,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A44">
         <v>12</v>
       </c>
@@ -2086,7 +2405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A45">
         <v>13</v>
       </c>
@@ -2112,7 +2431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A46">
         <v>13</v>
       </c>
@@ -2138,7 +2457,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A47">
         <v>18</v>
       </c>
@@ -2164,7 +2483,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A48">
         <v>22</v>
       </c>
@@ -2190,7 +2509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A49">
         <v>19</v>
       </c>
@@ -2216,7 +2535,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A50">
         <v>18</v>
       </c>
@@ -2242,7 +2561,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A51">
         <v>23</v>
       </c>
@@ -2268,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A52">
         <v>28</v>
       </c>
@@ -2294,7 +2613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A53">
         <v>30</v>
       </c>
@@ -2320,7 +2639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A54">
         <v>30</v>
       </c>
@@ -2346,7 +2665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A55">
         <v>31</v>
       </c>
@@ -2372,7 +2691,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A56">
         <v>35</v>
       </c>
@@ -2398,7 +2717,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A57">
         <v>27</v>
       </c>
@@ -2424,7 +2743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2450,7 +2769,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A59">
         <v>24</v>
       </c>
@@ -2476,7 +2795,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A60">
         <v>25</v>
       </c>
@@ -2502,7 +2821,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A61">
         <v>23</v>
       </c>
@@ -2528,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A62">
         <v>20</v>
       </c>
@@ -2554,7 +2873,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A63">
         <v>21</v>
       </c>
@@ -2580,7 +2899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A64">
         <v>13</v>
       </c>
@@ -2606,7 +2925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A65">
         <v>14</v>
       </c>
@@ -2632,7 +2951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A66">
         <v>15</v>
       </c>
@@ -2658,7 +2977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A67">
         <v>14</v>
       </c>
@@ -2684,7 +3003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A68">
         <v>17</v>
       </c>
@@ -2710,7 +3029,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A69">
         <v>11</v>
       </c>
@@ -2736,7 +3055,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A70">
         <v>13</v>
       </c>
@@ -2762,7 +3081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A71">
         <v>12</v>
       </c>
@@ -2788,7 +3107,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A72">
         <v>13</v>
       </c>
@@ -2814,7 +3133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A73">
         <v>19</v>
       </c>
@@ -2840,7 +3159,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A74">
         <v>15</v>
       </c>
@@ -2866,7 +3185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A75">
         <v>13</v>
       </c>
@@ -2892,7 +3211,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A76">
         <v>13</v>
       </c>
@@ -2918,7 +3237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A77">
         <v>14</v>
       </c>
@@ -2944,7 +3263,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A78">
         <v>18</v>
       </c>
@@ -2970,7 +3289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A79">
         <v>22</v>
       </c>
@@ -2996,7 +3315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A80">
         <v>21</v>
       </c>
@@ -3022,7 +3341,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A81">
         <v>26</v>
       </c>
@@ -3048,7 +3367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A82">
         <v>22</v>
       </c>
@@ -3074,7 +3393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A83">
         <v>28</v>
       </c>
@@ -3100,7 +3419,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A84">
         <v>23</v>
       </c>
@@ -3126,7 +3445,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A85">
         <v>28</v>
       </c>
@@ -3152,7 +3471,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A86">
         <v>27</v>
       </c>
@@ -3178,7 +3497,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A87">
         <v>13</v>
       </c>
@@ -3204,7 +3523,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A88">
         <v>14</v>
       </c>
@@ -3230,7 +3549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A89">
         <v>13</v>
       </c>
@@ -3256,7 +3575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A90">
         <v>14</v>
       </c>
@@ -3282,7 +3601,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A91">
         <v>15</v>
       </c>
@@ -3308,7 +3627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A92">
         <v>12</v>
       </c>
@@ -3334,7 +3653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A93">
         <v>13</v>
       </c>
@@ -3360,7 +3679,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A94">
         <v>13</v>
       </c>
@@ -3386,7 +3705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A95">
         <v>14</v>
       </c>
@@ -3412,7 +3731,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A96">
         <v>13</v>
       </c>
@@ -3438,7 +3757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A97">
         <v>12</v>
       </c>
@@ -3464,7 +3783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A98">
         <v>13</v>
       </c>
@@ -3490,7 +3809,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A99">
         <v>18</v>
       </c>
@@ -3516,7 +3835,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A100">
         <v>16</v>
       </c>
@@ -3542,7 +3861,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A101">
         <v>18</v>
       </c>
@@ -3568,7 +3887,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A102">
         <v>18</v>
       </c>
@@ -3594,7 +3913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A103">
         <v>23</v>
       </c>
@@ -3620,7 +3939,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A104">
         <v>26</v>
       </c>
@@ -3646,7 +3965,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A105">
         <v>11</v>
       </c>
@@ -3672,7 +3991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A106">
         <v>12</v>
       </c>
@@ -3698,7 +4017,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A107">
         <v>13</v>
       </c>
@@ -3724,7 +4043,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A108">
         <v>12</v>
       </c>
@@ -3750,7 +4069,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A109">
         <v>18</v>
       </c>
@@ -3776,7 +4095,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A110">
         <v>20</v>
       </c>
@@ -3802,7 +4121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A111">
         <v>21</v>
       </c>
@@ -3828,7 +4147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A112">
         <v>22</v>
       </c>
@@ -3854,7 +4173,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A113">
         <v>18</v>
       </c>
@@ -3880,7 +4199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A114">
         <v>19</v>
       </c>
@@ -3906,7 +4225,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A115">
         <v>21</v>
       </c>
@@ -3932,7 +4251,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A116">
         <v>26</v>
       </c>
@@ -3958,7 +4277,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A117">
         <v>15</v>
       </c>
@@ -3984,7 +4303,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A118">
         <v>16</v>
       </c>
@@ -4010,7 +4329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A119">
         <v>29</v>
       </c>
@@ -4036,7 +4355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A120">
         <v>24</v>
       </c>
@@ -4062,7 +4381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A121">
         <v>20</v>
       </c>
@@ -4088,7 +4407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A122">
         <v>19</v>
       </c>
@@ -4114,7 +4433,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A123">
         <v>15</v>
       </c>
@@ -4140,7 +4459,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A124">
         <v>24</v>
       </c>
@@ -4166,7 +4485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A125">
         <v>20</v>
       </c>
@@ -4192,7 +4511,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A126">
         <v>11</v>
       </c>
@@ -4218,7 +4537,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A127">
         <v>20</v>
       </c>
@@ -4244,7 +4563,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A128">
         <v>21</v>
       </c>
@@ -4267,7 +4586,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A129">
         <v>19</v>
       </c>
@@ -4293,7 +4612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A130">
         <v>15</v>
       </c>
@@ -4319,7 +4638,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A131">
         <v>31</v>
       </c>
@@ -4345,7 +4664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A132">
         <v>26</v>
       </c>
@@ -4371,7 +4690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A133">
         <v>32</v>
       </c>
@@ -4397,7 +4716,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A134">
         <v>25</v>
       </c>
@@ -4423,7 +4742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A135">
         <v>16</v>
       </c>
@@ -4449,7 +4768,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A136">
         <v>16</v>
       </c>
@@ -4475,7 +4794,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A137">
         <v>18</v>
       </c>
@@ -4501,7 +4820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A138">
         <v>16</v>
       </c>
@@ -4527,7 +4846,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A139">
         <v>13</v>
       </c>
@@ -4553,7 +4872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A140">
         <v>14</v>
       </c>
@@ -4579,7 +4898,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A141">
         <v>14</v>
       </c>
@@ -4605,7 +4924,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A142">
         <v>14</v>
       </c>
@@ -4631,7 +4950,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A143">
         <v>29</v>
       </c>
@@ -4657,7 +4976,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A144">
         <v>26</v>
       </c>
@@ -4683,7 +5002,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A145">
         <v>26</v>
       </c>
@@ -4709,7 +5028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A146">
         <v>31</v>
       </c>
@@ -4735,7 +5054,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A147">
         <v>32</v>
       </c>
@@ -4761,7 +5080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A148">
         <v>28</v>
       </c>
@@ -4787,7 +5106,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A149">
         <v>24</v>
       </c>
@@ -4813,7 +5132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A150">
         <v>26</v>
       </c>
@@ -4839,7 +5158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A151">
         <v>24</v>
       </c>
@@ -4865,7 +5184,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A152">
         <v>26</v>
       </c>
@@ -4891,7 +5210,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A153">
         <v>31</v>
       </c>
@@ -4917,7 +5236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A154">
         <v>19</v>
       </c>
@@ -4943,7 +5262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A155">
         <v>18</v>
       </c>
@@ -4969,7 +5288,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A156">
         <v>15</v>
       </c>
@@ -4995,7 +5314,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A157">
         <v>15</v>
       </c>
@@ -5021,7 +5340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A158">
         <v>16</v>
       </c>
@@ -5047,7 +5366,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A159">
         <v>15</v>
       </c>
@@ -5073,7 +5392,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A160">
         <v>16</v>
       </c>
@@ -5099,7 +5418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A161">
         <v>14</v>
       </c>
@@ -5125,7 +5444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A162">
         <v>17</v>
       </c>
@@ -5151,7 +5470,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A163">
         <v>16</v>
       </c>
@@ -5177,7 +5496,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A164">
         <v>15</v>
       </c>
@@ -5203,7 +5522,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A165">
         <v>18</v>
       </c>
@@ -5229,7 +5548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A166">
         <v>21</v>
       </c>
@@ -5255,7 +5574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A167">
         <v>20</v>
       </c>
@@ -5281,7 +5600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A168">
         <v>13</v>
       </c>
@@ -5307,7 +5626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A169">
         <v>29</v>
       </c>
@@ -5333,7 +5652,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A170">
         <v>23</v>
       </c>
@@ -5359,7 +5678,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A171">
         <v>20</v>
       </c>
@@ -5385,7 +5704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A172">
         <v>23</v>
       </c>
@@ -5411,7 +5730,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A173">
         <v>24</v>
       </c>
@@ -5437,7 +5756,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A174">
         <v>25</v>
       </c>
@@ -5463,7 +5782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A175">
         <v>24</v>
       </c>
@@ -5489,7 +5808,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A176">
         <v>18</v>
       </c>
@@ -5515,7 +5834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A177">
         <v>29</v>
       </c>
@@ -5541,7 +5860,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A178">
         <v>19</v>
       </c>
@@ -5567,7 +5886,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A179">
         <v>23</v>
       </c>
@@ -5593,7 +5912,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A180">
         <v>23</v>
       </c>
@@ -5619,7 +5938,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A181">
         <v>22</v>
       </c>
@@ -5645,7 +5964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A182">
         <v>25</v>
       </c>
@@ -5671,7 +5990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A183">
         <v>33</v>
       </c>
@@ -5697,7 +6016,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A184">
         <v>28</v>
       </c>
@@ -5723,7 +6042,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A185">
         <v>25</v>
       </c>
@@ -5749,7 +6068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A186">
         <v>25</v>
       </c>
@@ -5775,7 +6094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A187">
         <v>26</v>
       </c>
@@ -5801,7 +6120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A188">
         <v>27</v>
       </c>
@@ -5827,7 +6146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A189">
         <v>17.5</v>
       </c>
@@ -5853,7 +6172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A190">
         <v>16</v>
       </c>
@@ -5879,7 +6198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A191">
         <v>15.5</v>
       </c>
@@ -5905,7 +6224,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A192">
         <v>14.5</v>
       </c>
@@ -5931,7 +6250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A193">
         <v>22</v>
       </c>
@@ -5957,7 +6276,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A194">
         <v>22</v>
       </c>
@@ -5983,7 +6302,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A195">
         <v>24</v>
       </c>
@@ -6009,7 +6328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A196">
         <v>22.5</v>
       </c>
@@ -6035,7 +6354,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A197">
         <v>29</v>
       </c>
@@ -6061,7 +6380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A198">
         <v>24.5</v>
       </c>
@@ -6087,7 +6406,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A199">
         <v>29</v>
       </c>
@@ -6113,7 +6432,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A200">
         <v>33</v>
       </c>
@@ -6139,7 +6458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A201">
         <v>20</v>
       </c>
@@ -6165,7 +6484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A202">
         <v>18</v>
       </c>
@@ -6191,7 +6510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A203">
         <v>18.5</v>
       </c>
@@ -6217,7 +6536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A204">
         <v>17.5</v>
       </c>
@@ -6243,7 +6562,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A205">
         <v>29.5</v>
       </c>
@@ -6269,7 +6588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A206">
         <v>32</v>
       </c>
@@ -6295,7 +6614,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A207">
         <v>28</v>
       </c>
@@ -6321,7 +6640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A208">
         <v>26.5</v>
       </c>
@@ -6347,7 +6666,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A209">
         <v>20</v>
       </c>
@@ -6373,7 +6692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A210">
         <v>13</v>
       </c>
@@ -6399,7 +6718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A211">
         <v>19</v>
       </c>
@@ -6425,7 +6744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A212">
         <v>19</v>
       </c>
@@ -6451,7 +6770,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A213">
         <v>16.5</v>
       </c>
@@ -6477,7 +6796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A214">
         <v>16.5</v>
       </c>
@@ -6503,7 +6822,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A215">
         <v>13</v>
       </c>
@@ -6529,7 +6848,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A216">
         <v>13</v>
       </c>
@@ -6555,7 +6874,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A217">
         <v>13</v>
       </c>
@@ -6581,7 +6900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A218">
         <v>31.5</v>
       </c>
@@ -6607,7 +6926,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A219">
         <v>30</v>
       </c>
@@ -6633,7 +6952,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A220">
         <v>36</v>
       </c>
@@ -6659,7 +6978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A221">
         <v>25.5</v>
       </c>
@@ -6685,7 +7004,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A222">
         <v>33.5</v>
       </c>
@@ -6711,7 +7030,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A223">
         <v>17.5</v>
       </c>
@@ -6737,7 +7056,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A224">
         <v>17</v>
       </c>
@@ -6763,7 +7082,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A225">
         <v>15.5</v>
       </c>
@@ -6789,7 +7108,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A226">
         <v>15</v>
       </c>
@@ -6815,7 +7134,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A227">
         <v>17.5</v>
       </c>
@@ -6841,7 +7160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A228">
         <v>20.5</v>
       </c>
@@ -6867,7 +7186,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A229">
         <v>19</v>
       </c>
@@ -6893,7 +7212,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A230">
         <v>18.5</v>
       </c>
@@ -6919,7 +7238,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A231">
         <v>16</v>
       </c>
@@ -6945,7 +7264,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A232">
         <v>15.5</v>
       </c>
@@ -6971,7 +7290,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A233">
         <v>15.5</v>
       </c>
@@ -6997,7 +7316,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A234">
         <v>16</v>
       </c>
@@ -7023,7 +7342,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A235">
         <v>29</v>
       </c>
@@ -7049,7 +7368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A236">
         <v>24.5</v>
       </c>
@@ -7075,7 +7394,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A237">
         <v>26</v>
       </c>
@@ -7101,7 +7420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A238">
         <v>25.5</v>
       </c>
@@ -7127,7 +7446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A239">
         <v>30.5</v>
       </c>
@@ -7153,7 +7472,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A240">
         <v>33.5</v>
       </c>
@@ -7179,7 +7498,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A241">
         <v>30</v>
       </c>
@@ -7205,7 +7524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A242">
         <v>30.5</v>
       </c>
@@ -7231,7 +7550,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A243">
         <v>22</v>
       </c>
@@ -7257,7 +7576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A244">
         <v>21.5</v>
       </c>
@@ -7283,7 +7602,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A245">
         <v>21.5</v>
       </c>
@@ -7309,7 +7628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A246">
         <v>43.1</v>
       </c>
@@ -7335,7 +7654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A247">
         <v>36.1</v>
       </c>
@@ -7361,7 +7680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A248">
         <v>32.799999999999997</v>
       </c>
@@ -7387,7 +7706,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A249">
         <v>39.4</v>
       </c>
@@ -7413,7 +7732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A250">
         <v>36.1</v>
       </c>
@@ -7439,7 +7758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A251">
         <v>19.899999999999999</v>
       </c>
@@ -7465,7 +7784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A252">
         <v>19.399999999999999</v>
       </c>
@@ -7491,7 +7810,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A253">
         <v>20.2</v>
       </c>
@@ -7517,7 +7836,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A254">
         <v>19.2</v>
       </c>
@@ -7543,7 +7862,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A255">
         <v>20.5</v>
       </c>
@@ -7569,7 +7888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A256">
         <v>20.2</v>
       </c>
@@ -7595,7 +7914,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A257">
         <v>25.1</v>
       </c>
@@ -7621,7 +7940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A258">
         <v>20.5</v>
       </c>
@@ -7647,7 +7966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A259">
         <v>19.399999999999999</v>
       </c>
@@ -7673,7 +7992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A260">
         <v>20.6</v>
       </c>
@@ -7699,7 +8018,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A261">
         <v>20.8</v>
       </c>
@@ -7725,7 +8044,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A262">
         <v>18.600000000000001</v>
       </c>
@@ -7751,7 +8070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A263">
         <v>18.100000000000001</v>
       </c>
@@ -7777,7 +8096,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A264">
         <v>19.2</v>
       </c>
@@ -7803,7 +8122,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A265">
         <v>17.7</v>
       </c>
@@ -7829,7 +8148,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A266">
         <v>18.100000000000001</v>
       </c>
@@ -7855,7 +8174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A267">
         <v>17.5</v>
       </c>
@@ -7881,7 +8200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A268">
         <v>30</v>
       </c>
@@ -7907,7 +8226,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A269">
         <v>27.5</v>
       </c>
@@ -7933,7 +8252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A270">
         <v>27.2</v>
       </c>
@@ -7959,7 +8278,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A271">
         <v>30.9</v>
       </c>
@@ -7985,7 +8304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A272">
         <v>21.1</v>
       </c>
@@ -8011,7 +8330,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A273">
         <v>23.2</v>
       </c>
@@ -8037,7 +8356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A274">
         <v>23.8</v>
       </c>
@@ -8063,7 +8382,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A275">
         <v>23.9</v>
       </c>
@@ -8089,7 +8408,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A276">
         <v>20.3</v>
       </c>
@@ -8115,7 +8434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A277">
         <v>17</v>
       </c>
@@ -8141,7 +8460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A278">
         <v>21.6</v>
       </c>
@@ -8167,7 +8486,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A279">
         <v>16.2</v>
       </c>
@@ -8193,7 +8512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A280">
         <v>31.5</v>
       </c>
@@ -8219,7 +8538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A281">
         <v>29.5</v>
       </c>
@@ -8245,7 +8564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A282">
         <v>21.5</v>
       </c>
@@ -8271,7 +8590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A283">
         <v>19.8</v>
       </c>
@@ -8297,7 +8616,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A284">
         <v>22.3</v>
       </c>
@@ -8323,7 +8642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A285">
         <v>20.2</v>
       </c>
@@ -8349,7 +8668,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A286">
         <v>20.6</v>
       </c>
@@ -8375,7 +8694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A287">
         <v>17</v>
       </c>
@@ -8401,7 +8720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A288">
         <v>17.600000000000001</v>
       </c>
@@ -8427,7 +8746,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A289">
         <v>16.5</v>
       </c>
@@ -8453,7 +8772,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A290">
         <v>18.2</v>
       </c>
@@ -8479,7 +8798,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A291">
         <v>16.899999999999999</v>
       </c>
@@ -8505,7 +8824,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A292">
         <v>15.5</v>
       </c>
@@ -8531,7 +8850,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A293">
         <v>19.2</v>
       </c>
@@ -8557,7 +8876,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A294">
         <v>18.5</v>
       </c>
@@ -8583,7 +8902,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A295">
         <v>31.9</v>
       </c>
@@ -8609,7 +8928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A296">
         <v>34.1</v>
       </c>
@@ -8635,7 +8954,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A297">
         <v>35.700000000000003</v>
       </c>
@@ -8661,7 +8980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A298">
         <v>27.4</v>
       </c>
@@ -8687,7 +9006,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A299">
         <v>25.4</v>
       </c>
@@ -8713,7 +9032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A300">
         <v>23</v>
       </c>
@@ -8739,7 +9058,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A301">
         <v>27.2</v>
       </c>
@@ -8765,7 +9084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A302">
         <v>23.9</v>
       </c>
@@ -8791,7 +9110,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A303">
         <v>34.200000000000003</v>
       </c>
@@ -8817,7 +9136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A304">
         <v>34.5</v>
       </c>
@@ -8843,7 +9162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A305">
         <v>31.8</v>
       </c>
@@ -8869,7 +9188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A306">
         <v>37.299999999999997</v>
       </c>
@@ -8895,7 +9214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A307">
         <v>28.4</v>
       </c>
@@ -8921,7 +9240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A308">
         <v>28.8</v>
       </c>
@@ -8947,7 +9266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A309">
         <v>26.8</v>
       </c>
@@ -8973,7 +9292,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A310">
         <v>33.5</v>
       </c>
@@ -8999,7 +9318,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A311">
         <v>41.5</v>
       </c>
@@ -9025,7 +9344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A312">
         <v>38.1</v>
       </c>
@@ -9051,7 +9370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A313">
         <v>32.1</v>
       </c>
@@ -9077,7 +9396,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A314">
         <v>37.200000000000003</v>
       </c>
@@ -9103,7 +9422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A315">
         <v>28</v>
       </c>
@@ -9129,7 +9448,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A316">
         <v>26.4</v>
       </c>
@@ -9155,7 +9474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A317">
         <v>24.3</v>
       </c>
@@ -9181,7 +9500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A318">
         <v>19.100000000000001</v>
       </c>
@@ -9207,7 +9526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A319">
         <v>34.299999999999997</v>
       </c>
@@ -9233,7 +9552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A320">
         <v>29.8</v>
       </c>
@@ -9259,7 +9578,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A321">
         <v>31.3</v>
       </c>
@@ -9285,7 +9604,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A322">
         <v>37</v>
       </c>
@@ -9311,7 +9630,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A323">
         <v>32.200000000000003</v>
       </c>
@@ -9337,7 +9656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A324">
         <v>46.6</v>
       </c>
@@ -9363,7 +9682,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A325">
         <v>27.9</v>
       </c>
@@ -9389,7 +9708,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A326">
         <v>40.799999999999997</v>
       </c>
@@ -9415,7 +9734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A327">
         <v>44.3</v>
       </c>
@@ -9441,7 +9760,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A328">
         <v>43.4</v>
       </c>
@@ -9467,7 +9786,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A329">
         <v>36.4</v>
       </c>
@@ -9493,7 +9812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A330">
         <v>30</v>
       </c>
@@ -9519,7 +9838,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A331">
         <v>44.6</v>
       </c>
@@ -9545,7 +9864,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A332">
         <v>40.9</v>
       </c>
@@ -9568,7 +9887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A333">
         <v>33.799999999999997</v>
       </c>
@@ -9594,7 +9913,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A334">
         <v>29.8</v>
       </c>
@@ -9620,7 +9939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A335">
         <v>32.700000000000003</v>
       </c>
@@ -9646,7 +9965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A336">
         <v>23.7</v>
       </c>
@@ -9672,7 +9991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A337">
         <v>35</v>
       </c>
@@ -9698,7 +10017,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A338">
         <v>23.6</v>
       </c>
@@ -9721,7 +10040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A339">
         <v>32.4</v>
       </c>
@@ -9747,7 +10066,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A340">
         <v>27.2</v>
       </c>
@@ -9773,7 +10092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A341">
         <v>26.6</v>
       </c>
@@ -9799,7 +10118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A342">
         <v>25.8</v>
       </c>
@@ -9825,7 +10144,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A343">
         <v>23.5</v>
       </c>
@@ -9851,7 +10170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A344">
         <v>30</v>
       </c>
@@ -9877,7 +10196,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A345">
         <v>39.1</v>
       </c>
@@ -9903,7 +10222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A346">
         <v>39</v>
       </c>
@@ -9929,7 +10248,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A347">
         <v>35.1</v>
       </c>
@@ -9955,7 +10274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A348">
         <v>32.299999999999997</v>
       </c>
@@ -9981,7 +10300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A349">
         <v>37</v>
       </c>
@@ -10007,7 +10326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A350">
         <v>37.700000000000003</v>
       </c>
@@ -10033,7 +10352,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A351">
         <v>34.1</v>
       </c>
@@ -10059,7 +10378,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A352">
         <v>34.700000000000003</v>
       </c>
@@ -10085,7 +10404,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A353">
         <v>34.4</v>
       </c>
@@ -10111,7 +10430,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A354">
         <v>29.9</v>
       </c>
@@ -10137,7 +10456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A355">
         <v>33</v>
       </c>
@@ -10163,7 +10482,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A356">
         <v>34.5</v>
       </c>
@@ -10186,7 +10505,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A357">
         <v>33.700000000000003</v>
       </c>
@@ -10212,7 +10531,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A358">
         <v>32.4</v>
       </c>
@@ -10238,7 +10557,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A359">
         <v>32.9</v>
       </c>
@@ -10264,7 +10583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A360">
         <v>31.6</v>
       </c>
@@ -10290,7 +10609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A361">
         <v>28.1</v>
       </c>
@@ -10316,7 +10635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A362">
         <v>30.7</v>
       </c>
@@ -10342,7 +10661,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A363">
         <v>25.4</v>
       </c>
@@ -10368,7 +10687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A364">
         <v>24.2</v>
       </c>
@@ -10394,7 +10713,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A365">
         <v>22.4</v>
       </c>
@@ -10420,7 +10739,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A366">
         <v>26.6</v>
       </c>
@@ -10446,7 +10765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A367">
         <v>20.2</v>
       </c>
@@ -10472,7 +10791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A368">
         <v>17.600000000000001</v>
       </c>
@@ -10498,7 +10817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A369">
         <v>28</v>
       </c>
@@ -10524,7 +10843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A370">
         <v>27</v>
       </c>
@@ -10550,7 +10869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A371">
         <v>34</v>
       </c>
@@ -10576,7 +10895,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A372">
         <v>31</v>
       </c>
@@ -10602,7 +10921,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A373">
         <v>29</v>
       </c>
@@ -10628,7 +10947,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A374">
         <v>27</v>
       </c>
@@ -10654,7 +10973,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A375">
         <v>24</v>
       </c>
@@ -10680,7 +10999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A376">
         <v>23</v>
       </c>
@@ -10703,7 +11022,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A377">
         <v>36</v>
       </c>
@@ -10729,7 +11048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A378">
         <v>37</v>
       </c>
@@ -10755,7 +11074,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A379">
         <v>31</v>
       </c>
@@ -10781,7 +11100,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A380">
         <v>38</v>
       </c>
@@ -10807,7 +11126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A381">
         <v>36</v>
       </c>
@@ -10833,7 +11152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A382">
         <v>36</v>
       </c>
@@ -10859,7 +11178,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A383">
         <v>36</v>
       </c>
@@ -10885,7 +11204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A384">
         <v>34</v>
       </c>
@@ -10911,7 +11230,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A385">
         <v>38</v>
       </c>
@@ -10937,7 +11256,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A386">
         <v>32</v>
       </c>
@@ -10963,7 +11282,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A387">
         <v>38</v>
       </c>
@@ -10989,7 +11308,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A388">
         <v>25</v>
       </c>
@@ -11015,7 +11334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A389">
         <v>38</v>
       </c>
@@ -11041,7 +11360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A390">
         <v>26</v>
       </c>
@@ -11067,7 +11386,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A391">
         <v>22</v>
       </c>
@@ -11093,7 +11412,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A392">
         <v>32</v>
       </c>
@@ -11119,7 +11438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A393">
         <v>36</v>
       </c>
@@ -11145,7 +11464,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A394">
         <v>27</v>
       </c>
@@ -11171,7 +11490,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A395">
         <v>27</v>
       </c>
@@ -11197,7 +11516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A396">
         <v>44</v>
       </c>
@@ -11223,7 +11542,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A397">
         <v>32</v>
       </c>
@@ -11249,7 +11568,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A398">
         <v>28</v>
       </c>
@@ -11275,7 +11594,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="21.3" x14ac:dyDescent="0.85">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.85">
       <c r="A399">
         <v>31</v>
       </c>
